--- a/pred_ohlcv/54_21/2019-10-27 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETC ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>-111.4796555040089</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1046.191653617216</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>180.0773315679689</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>180.0773315679689</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>78.83353156796889</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>78.83353156796889</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>82.43819140021493</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>82.43819140021493</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-459.7651085997851</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-777.9554085997851</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-704.5047085997851</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-707.5871085997851</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-712.6885085997851</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-704.2812085997851</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-966.0455085997851</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-969.630608599785</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-160.200908599785</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-414.949108599785</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-414.949108599785</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-410.949108599785</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-353.690208599785</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-352.633408599785</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-338.085308599785</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-338.085308599785</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-351.607508599785</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-338.230908599785</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>300.882091400215</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>278.722891400215</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>549.627891400215</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>526.777491400215</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>11679.29979140021</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>11865.48069140021</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>12019.37149140021</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>12138.86949140021</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>11517.60601241013</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>10817.44411241013</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>10712.17361241013</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>10882.03611241013</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>10979.73611241013</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>11308.51821241013</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>11761.42651241013</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>11211.63231241013</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>11432.96701241013</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>11431.41131241013</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>11678.81741241013</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>11822.18991241013</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>11810.29791241013</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>10372.38781241013</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>10489.17531241013</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>10489.17531241013</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>9605.207712410127</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>7644.574012410127</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ETC ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>-111.4796555040089</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1039.191653617216</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-674.0706536172163</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-666.8006536172163</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-465.8006536172163</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>175.2886315679689</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>180.0773315679689</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>180.0773315679689</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>78.83353156796889</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>78.83353156796889</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>82.43819140021493</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>82.43819140021493</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-459.7651085997851</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-777.9554085997851</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-704.5047085997851</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-707.5871085997851</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-712.6885085997851</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-704.2812085997851</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-706.0236085997851</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-966.0455085997851</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-969.630608599785</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-160.200908599785</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-414.949108599785</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-414.949108599785</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-410.949108599785</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-353.690208599785</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-352.633408599785</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-338.085308599785</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-338.085308599785</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-351.607508599785</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-338.230908599785</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>300.882091400215</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>278.722891400215</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>549.627891400215</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>526.777491400215</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>11790.22869140021</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>11115.80589140021</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>11122.50859140021</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>11122.50859140021</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>11252.96779140021</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>11679.29979140021</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>11865.48069140021</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>12019.37149140021</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>12138.86949140021</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>11517.60601241013</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>10817.44411241013</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>10712.17361241013</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>10883.69691241013</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>10882.03611241013</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>10979.73611241013</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>11308.51821241013</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>11761.42651241013</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>11211.63231241013</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>11434.96701241013</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>11432.96701241013</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>11431.41131241013</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>11678.81741241013</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>11822.18991241013</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>11810.29791241013</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>10372.38781241013</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>10489.17531241013</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>10489.17531241013</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>9853.328212410128</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>9605.207712410127</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>7644.574012410127</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
